--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murtaza\rrrs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2471F613-7F7C-4AA5-84A4-E17D049643B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{85199F05-817D-414A-BAEF-78C5104689E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>/request/:id/view</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>/user/generatequot</t>
+  </si>
+  <si>
+    <t>Submit quotation for request</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +630,9 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -679,7 +691,18 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
